--- a/docs/Extra/ActiPASS-Diary-example.xlsx
+++ b/docs/Extra/ActiPASS-Diary-example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pashe866\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pashe866\Coding\Matlab\AMM\Ergo-Tools\ActiPASS\docs\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -590,7 +590,7 @@
   <dimension ref="A1:F159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,10 +847,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1000002</v>
+        <v>1000001</v>
       </c>
       <c r="B18" s="1">
-        <v>42898</v>
+        <v>42900</v>
       </c>
       <c r="C18" s="2">
         <v>0.3125</v>
@@ -861,10 +861,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1000002</v>
+        <v>1000001</v>
       </c>
       <c r="B19" s="1">
-        <v>42898</v>
+        <v>42900</v>
       </c>
       <c r="C19" s="2">
         <v>0.60416666666666663</v>
@@ -878,7 +878,7 @@
         <v>1000001</v>
       </c>
       <c r="B20" s="1">
-        <v>42893</v>
+        <v>42900</v>
       </c>
       <c r="C20" s="2">
         <v>0.85416666666666663</v>

--- a/docs/Extra/ActiPASS-Diary-example.xlsx
+++ b/docs/Extra/ActiPASS-Diary-example.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="ExampleData" sheetId="1" r:id="rId1"/>
@@ -404,6 +404,93 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5514975" y="2552701"/>
+          <a:ext cx="2609850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2800" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>See Instructions</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -671,17 +758,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12" style="6"/>
-    <col min="3" max="3" width="9.265625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -698,7 +783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
@@ -712,7 +797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>37</v>
       </c>
@@ -726,7 +811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
@@ -740,7 +825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
@@ -754,7 +839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
@@ -768,7 +853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
@@ -782,7 +867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
@@ -796,7 +881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
@@ -810,7 +895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
@@ -827,7 +912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
@@ -841,7 +926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>37</v>
       </c>
@@ -855,7 +940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
@@ -869,7 +954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
@@ -883,7 +968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>37</v>
       </c>
@@ -897,7 +982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>37</v>
       </c>
@@ -911,7 +996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>37</v>
       </c>
@@ -928,7 +1013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>37</v>
       </c>
@@ -942,7 +1027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>37</v>
       </c>
@@ -956,7 +1041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>37</v>
       </c>
@@ -970,7 +1055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>38</v>
       </c>
@@ -984,7 +1069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>38</v>
       </c>
@@ -998,7 +1083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>38</v>
       </c>
@@ -1012,7 +1097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>38</v>
       </c>
@@ -1026,7 +1111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>38</v>
       </c>
@@ -1040,7 +1125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>38</v>
       </c>
@@ -1054,7 +1139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>38</v>
       </c>
@@ -1068,7 +1153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>38</v>
       </c>
@@ -1085,7 +1170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>38</v>
       </c>
@@ -1099,7 +1184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>38</v>
       </c>
@@ -1113,7 +1198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>38</v>
       </c>
@@ -1127,7 +1212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>38</v>
       </c>
@@ -1141,7 +1226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>38</v>
       </c>
@@ -1155,7 +1240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>38</v>
       </c>
@@ -1169,7 +1254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>38</v>
       </c>
@@ -1183,7 +1268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>38</v>
       </c>
@@ -1197,7 +1282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>38</v>
       </c>
@@ -1211,7 +1296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>38</v>
       </c>
@@ -1225,384 +1310,385 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C48" s="7"/>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" s="7"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" s="7"/>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" s="7"/>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52" s="7"/>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C53" s="7"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C54" s="7"/>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C55" s="7"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C56" s="7"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="4:4" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D159" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1610,23 +1696,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.59765625" customWidth="1"/>
-    <col min="9" max="9" width="6.59765625" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="19.899999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1634,7 +1718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1642,12 +1726,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -1655,7 +1739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -1663,22 +1747,22 @@
       <c r="D9"/>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1686,7 +1770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1694,7 +1778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1702,7 +1786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1710,7 +1794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1718,7 +1802,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1726,12 +1810,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>

--- a/docs/Extra/ActiPASS-Diary-example.xlsx
+++ b/docs/Extra/ActiPASS-Diary-example.xlsx
@@ -476,6 +476,105 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>See Instructions</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="5324474"/>
+          <a:ext cx="2609850" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2800" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>See example</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> diary</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="2800">
@@ -1823,5 +1922,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/Extra/ActiPASS-Diary-example.xlsx
+++ b/docs/Extra/ActiPASS-Diary-example.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pashe866\Coding\Matlab\AMM\Ergo-Tools\ActiPASS\docs\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A61346-FE24-4621-879B-D8C3FEEB22F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExampleData" sheetId="1" r:id="rId1"/>
@@ -25,13 +26,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Pasan Hettiarachchi</author>
     <author>Peter Palm</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="1" shapeId="0">
+    <comment ref="D3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="1" shapeId="0">
+    <comment ref="D6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -147,9 +148,6 @@
     <t>Stop</t>
   </si>
   <si>
-    <t>ref</t>
-  </si>
-  <si>
     <t xml:space="preserve">Date and time </t>
   </si>
   <si>
@@ -207,9 +205,6 @@
     <t>The 'MNW' is a not-worn period and all activities detected in this period will ignored and will be be re-classified as NW. Can be used in special situations like accelerometer is carried in a bag, but not-worn</t>
   </si>
   <si>
-    <t xml:space="preserve">The event name "Ref" can be used if a reference position (Standing still upright) has been used to adjust the inclination angle of the accelerometer.  </t>
-  </si>
-  <si>
     <t>The even name 'NE' represents 'no event' in ActiPASS terminology. It can be used to end an event where the next event is unknown. Anyway ths is not a special event, but just a suggested naming convention</t>
   </si>
   <si>
@@ -255,9 +250,6 @@
     <t>08:25:00</t>
   </si>
   <si>
-    <t>08:27:00</t>
-  </si>
-  <si>
     <t>16:30:00</t>
   </si>
   <si>
@@ -298,12 +290,30 @@
   </si>
   <si>
     <t>15:30:00</t>
+  </si>
+  <si>
+    <t>08:30:00</t>
+  </si>
+  <si>
+    <t>08:27:42</t>
+  </si>
+  <si>
+    <t>standing still for individual calibration</t>
+  </si>
+  <si>
+    <t>06:30:00</t>
+  </si>
+  <si>
+    <t>06:27:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The event name "Ref" can be used if a reference position (Standing still upright) is used for individual calibration.  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,6 +435,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
@@ -512,6 +527,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
@@ -854,10 +874,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F159"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -884,13 +906,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -898,27 +920,30 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -926,13 +951,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -940,13 +965,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -954,13 +979,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>4</v>
@@ -968,13 +993,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -982,13 +1007,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>4</v>
@@ -996,30 +1021,30 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>4</v>
@@ -1027,13 +1052,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
@@ -1041,13 +1066,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>4</v>
@@ -1055,13 +1080,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -1069,13 +1094,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>4</v>
@@ -1083,13 +1108,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -1097,30 +1122,30 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -1128,13 +1153,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>4</v>
@@ -1142,13 +1167,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
@@ -1156,13 +1181,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
@@ -1170,247 +1195,258 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
@@ -1437,8 +1473,7 @@
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C48" s="7"/>
-      <c r="D48" s="3"/>
+      <c r="D48" s="1"/>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" s="7"/>
@@ -1473,11 +1508,11 @@
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D57" s="1"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="3"/>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
-      <c r="F58" s="2"/>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
@@ -1485,6 +1520,7 @@
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
+      <c r="F60" s="2"/>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
@@ -1672,10 +1708,10 @@
     <row r="122" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:4" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D124" s="1"/>
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.25">
@@ -1782,6 +1818,9 @@
     </row>
     <row r="159" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D159" s="1"/>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D160" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1792,10 +1831,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1811,23 +1852,23 @@
     <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1835,12 +1876,12 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -1848,57 +1889,57 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
         <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1906,7 +1947,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1916,7 +1957,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Extra/ActiPASS-Diary-example.xlsx
+++ b/docs/Extra/ActiPASS-Diary-example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pashe866\Coding\Matlab\AMM\Ergo-Tools\ActiPASS\docs\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A61346-FE24-4621-879B-D8C3FEEB22F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F202A7F-BC56-44F8-A1B7-AC1BF613F0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExampleData" sheetId="1" r:id="rId1"/>
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1834,7 +1834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
